--- a/August'21/18.08.2021/Bank Statement August-2021.xlsx
+++ b/August'21/18.08.2021/Bank Statement August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -3520,12 +3520,60 @@
     <xf numFmtId="2" fontId="13" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3544,51 +3592,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3601,6 +3604,12 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3637,9 +3646,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3656,6 +3662,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3799,6 +3817,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3834,27 +3855,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4459,70 +4459,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="385" t="s">
+      <c r="A1" s="378" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="385"/>
-      <c r="C1" s="385"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="385"/>
-      <c r="F1" s="385"/>
-      <c r="G1" s="385"/>
-      <c r="H1" s="385"/>
-      <c r="I1" s="385"/>
-      <c r="J1" s="385"/>
-      <c r="K1" s="385"/>
-      <c r="L1" s="385"/>
-      <c r="M1" s="385"/>
-      <c r="N1" s="385"/>
-      <c r="O1" s="385"/>
-      <c r="P1" s="385"/>
-      <c r="Q1" s="385"/>
-      <c r="R1" s="385"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
+      <c r="I1" s="378"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
+      <c r="M1" s="378"/>
+      <c r="N1" s="378"/>
+      <c r="O1" s="378"/>
+      <c r="P1" s="378"/>
+      <c r="Q1" s="378"/>
+      <c r="R1" s="378"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="386" t="s">
+      <c r="A2" s="379" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="386"/>
-      <c r="H2" s="386"/>
-      <c r="I2" s="386"/>
-      <c r="J2" s="386"/>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
-      <c r="M2" s="386"/>
-      <c r="N2" s="386"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="386"/>
-      <c r="Q2" s="386"/>
-      <c r="R2" s="386"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="379"/>
+      <c r="J2" s="379"/>
+      <c r="K2" s="379"/>
+      <c r="L2" s="379"/>
+      <c r="M2" s="379"/>
+      <c r="N2" s="379"/>
+      <c r="O2" s="379"/>
+      <c r="P2" s="379"/>
+      <c r="Q2" s="379"/>
+      <c r="R2" s="379"/>
     </row>
     <row r="3" spans="1:25" s="91" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="393" t="s">
+      <c r="A3" s="388" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="394"/>
-      <c r="C3" s="394"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="394"/>
-      <c r="F3" s="394"/>
-      <c r="G3" s="394"/>
-      <c r="H3" s="394"/>
-      <c r="I3" s="394"/>
-      <c r="J3" s="394"/>
-      <c r="K3" s="394"/>
-      <c r="L3" s="394"/>
-      <c r="M3" s="394"/>
-      <c r="N3" s="394"/>
-      <c r="O3" s="394"/>
-      <c r="P3" s="394"/>
-      <c r="Q3" s="394"/>
-      <c r="R3" s="395"/>
+      <c r="B3" s="389"/>
+      <c r="C3" s="389"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="389"/>
+      <c r="F3" s="389"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="389"/>
+      <c r="I3" s="389"/>
+      <c r="J3" s="389"/>
+      <c r="K3" s="389"/>
+      <c r="L3" s="389"/>
+      <c r="M3" s="389"/>
+      <c r="N3" s="389"/>
+      <c r="O3" s="389"/>
+      <c r="P3" s="389"/>
+      <c r="Q3" s="389"/>
+      <c r="R3" s="390"/>
       <c r="T3" s="92"/>
       <c r="U3" s="93"/>
       <c r="V3" s="93"/>
@@ -4531,55 +4531,55 @@
       <c r="Y3" s="94"/>
     </row>
     <row r="4" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="387" t="s">
+      <c r="A4" s="380" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="389" t="s">
+      <c r="B4" s="382" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="389" t="s">
+      <c r="C4" s="382" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="383" t="s">
+      <c r="D4" s="376" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="376" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="383" t="s">
+      <c r="F4" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="383" t="s">
+      <c r="G4" s="376" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="383" t="s">
+      <c r="H4" s="376" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="383" t="s">
+      <c r="I4" s="376" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="383" t="s">
+      <c r="J4" s="376" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="396" t="s">
+      <c r="K4" s="391" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="375" t="s">
+      <c r="L4" s="384" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="377" t="s">
+      <c r="M4" s="393" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="379" t="s">
+      <c r="N4" s="395" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="381" t="s">
+      <c r="O4" s="397" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="375" t="s">
+      <c r="P4" s="384" t="s">
         <v>223</v>
       </c>
-      <c r="Q4" s="391" t="s">
+      <c r="Q4" s="386" t="s">
         <v>118</v>
       </c>
       <c r="R4" s="282" t="s">
@@ -4592,23 +4592,23 @@
       <c r="X4" s="93"/>
     </row>
     <row r="5" spans="1:25" s="94" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="388"/>
-      <c r="B5" s="390"/>
-      <c r="C5" s="390"/>
-      <c r="D5" s="384"/>
-      <c r="E5" s="384"/>
-      <c r="F5" s="384"/>
-      <c r="G5" s="384"/>
-      <c r="H5" s="384"/>
-      <c r="I5" s="384"/>
-      <c r="J5" s="384"/>
-      <c r="K5" s="397"/>
-      <c r="L5" s="376"/>
-      <c r="M5" s="378"/>
-      <c r="N5" s="380"/>
-      <c r="O5" s="382"/>
-      <c r="P5" s="376"/>
-      <c r="Q5" s="392"/>
+      <c r="A5" s="381"/>
+      <c r="B5" s="383"/>
+      <c r="C5" s="383"/>
+      <c r="D5" s="377"/>
+      <c r="E5" s="377"/>
+      <c r="F5" s="377"/>
+      <c r="G5" s="377"/>
+      <c r="H5" s="377"/>
+      <c r="I5" s="377"/>
+      <c r="J5" s="377"/>
+      <c r="K5" s="392"/>
+      <c r="L5" s="385"/>
+      <c r="M5" s="394"/>
+      <c r="N5" s="396"/>
+      <c r="O5" s="398"/>
+      <c r="P5" s="385"/>
+      <c r="Q5" s="387"/>
       <c r="R5" s="283" t="s">
         <v>32</v>
       </c>
@@ -7606,6 +7606,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7618,14 +7626,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7662,37 +7662,37 @@
       <c r="H1" s="312"/>
     </row>
     <row r="2" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="468" t="s">
+      <c r="B2" s="475" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="469"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="469"/>
-      <c r="F2" s="470"/>
+      <c r="C2" s="476"/>
+      <c r="D2" s="476"/>
+      <c r="E2" s="476"/>
+      <c r="F2" s="477"/>
       <c r="H2" s="114"/>
       <c r="I2" s="114"/>
       <c r="J2" s="114"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="471" t="s">
+      <c r="B3" s="478" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="472"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="472"/>
-      <c r="F3" s="473"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="480"/>
       <c r="H3" s="114"/>
       <c r="I3" s="114"/>
       <c r="J3" s="114"/>
     </row>
     <row r="4" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="474" t="s">
+      <c r="B4" s="481" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="475"/>
-      <c r="D4" s="475"/>
-      <c r="E4" s="475"/>
-      <c r="F4" s="476"/>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="482"/>
+      <c r="F4" s="483"/>
     </row>
     <row r="5" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
@@ -7713,15 +7713,15 @@
     <row r="6" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B6" s="313"/>
       <c r="C6" s="314"/>
-      <c r="D6" s="477"/>
+      <c r="D6" s="484"/>
       <c r="E6" s="315"/>
       <c r="F6" s="316"/>
       <c r="G6" s="26"/>
-      <c r="K6" s="408" t="s">
+      <c r="K6" s="411" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="409"/>
-      <c r="M6" s="410"/>
+      <c r="L6" s="412"/>
+      <c r="M6" s="413"/>
     </row>
     <row r="7" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="79" t="s">
@@ -7730,7 +7730,7 @@
       <c r="C7" s="18">
         <v>2000000</v>
       </c>
-      <c r="D7" s="478"/>
+      <c r="D7" s="485"/>
       <c r="E7" s="27" t="s">
         <v>1</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="478"/>
+      <c r="D8" s="485"/>
       <c r="E8" s="27" t="s">
         <v>4</v>
       </c>
@@ -7774,7 +7774,7 @@
     <row r="9" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="B9" s="79"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="478"/>
+      <c r="D9" s="485"/>
       <c r="E9" s="27" t="s">
         <v>7</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="478"/>
+      <c r="D10" s="485"/>
       <c r="E10" s="27" t="s">
         <v>2</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="28"/>
-      <c r="D11" s="478"/>
+      <c r="D11" s="485"/>
       <c r="E11" s="27" t="s">
         <v>148</v>
       </c>
@@ -7839,7 +7839,7 @@
     <row r="12" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="B12" s="79"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="478"/>
+      <c r="D12" s="485"/>
       <c r="E12" s="201"/>
       <c r="F12" s="81"/>
       <c r="G12" s="20"/>
@@ -7858,7 +7858,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="35"/>
-      <c r="D13" s="478"/>
+      <c r="D13" s="485"/>
       <c r="E13" s="27" t="s">
         <v>5</v>
       </c>
@@ -7888,7 +7888,7 @@
         <f>C8-C10-C11-C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="478"/>
+      <c r="D14" s="485"/>
       <c r="E14" s="27" t="s">
         <v>16</v>
       </c>
@@ -7907,7 +7907,7 @@
     <row r="15" spans="2:13" ht="21.75" x14ac:dyDescent="0.3">
       <c r="B15" s="83"/>
       <c r="C15" s="35"/>
-      <c r="D15" s="478"/>
+      <c r="D15" s="485"/>
       <c r="E15" s="201"/>
       <c r="F15" s="226"/>
       <c r="G15" s="20"/>
@@ -7924,7 +7924,7 @@
     <row r="16" spans="2:13" s="23" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
       <c r="B16" s="79"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="478"/>
+      <c r="D16" s="485"/>
       <c r="E16" s="27"/>
       <c r="F16" s="84"/>
       <c r="G16" s="22"/>
@@ -7944,7 +7944,7 @@
         <f>C7+C8-C10-C13-C15</f>
         <v>2000000</v>
       </c>
-      <c r="D17" s="478"/>
+      <c r="D17" s="485"/>
       <c r="E17" s="27" t="s">
         <v>3</v>
       </c>
@@ -7966,7 +7966,7 @@
     <row r="18" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="85"/>
       <c r="C18" s="86"/>
-      <c r="D18" s="479"/>
+      <c r="D18" s="486"/>
       <c r="E18" s="87"/>
       <c r="F18" s="88"/>
       <c r="G18" s="20"/>
@@ -7981,11 +7981,11 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="411"/>
-      <c r="C19" s="412"/>
-      <c r="D19" s="412"/>
-      <c r="E19" s="412"/>
-      <c r="F19" s="413"/>
+      <c r="B19" s="414"/>
+      <c r="C19" s="415"/>
+      <c r="D19" s="415"/>
+      <c r="E19" s="415"/>
+      <c r="F19" s="416"/>
       <c r="G19" s="24"/>
       <c r="K19" s="161"/>
       <c r="L19" s="161"/>
@@ -8069,10 +8069,10 @@
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="24"/>
-      <c r="K27" s="414" t="s">
+      <c r="K27" s="474" t="s">
         <v>31</v>
       </c>
-      <c r="L27" s="414"/>
+      <c r="L27" s="474"/>
       <c r="M27" s="162">
         <f>SUM(M8:M26)</f>
         <v>164706</v>
@@ -8178,12 +8178,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="398" t="s">
+      <c r="A1" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="400"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="401"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -8198,12 +8198,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="402" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
       <c r="E2" s="13"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -10183,8 +10183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F19"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10209,37 +10209,37 @@
       <c r="H1" s="312"/>
     </row>
     <row r="2" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="405" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="404"/>
+      <c r="C2" s="406"/>
+      <c r="D2" s="406"/>
+      <c r="E2" s="406"/>
+      <c r="F2" s="407"/>
       <c r="H2" s="114"/>
       <c r="I2" s="114"/>
       <c r="J2" s="114"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="415" t="s">
+      <c r="B3" s="417" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="416"/>
-      <c r="D3" s="416"/>
-      <c r="E3" s="416"/>
-      <c r="F3" s="417"/>
+      <c r="C3" s="418"/>
+      <c r="D3" s="418"/>
+      <c r="E3" s="418"/>
+      <c r="F3" s="419"/>
       <c r="H3" s="114"/>
       <c r="I3" s="114"/>
       <c r="J3" s="114"/>
     </row>
     <row r="4" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="405" t="s">
+      <c r="B4" s="408" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="406"/>
-      <c r="D4" s="406"/>
-      <c r="E4" s="406"/>
-      <c r="F4" s="407"/>
+      <c r="C4" s="409"/>
+      <c r="D4" s="409"/>
+      <c r="E4" s="409"/>
+      <c r="F4" s="410"/>
     </row>
     <row r="5" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="352" t="s">
@@ -10264,7 +10264,7 @@
       <c r="C6" s="348">
         <v>300000</v>
       </c>
-      <c r="D6" s="418"/>
+      <c r="D6" s="420"/>
       <c r="E6" s="347" t="s">
         <v>0</v>
       </c>
@@ -10274,17 +10274,17 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="480"/>
-      <c r="C7" s="481"/>
-      <c r="D7" s="419"/>
-      <c r="E7" s="482"/>
-      <c r="F7" s="483"/>
+      <c r="B7" s="423"/>
+      <c r="C7" s="424"/>
+      <c r="D7" s="421"/>
+      <c r="E7" s="425"/>
+      <c r="F7" s="426"/>
       <c r="G7" s="26"/>
-      <c r="K7" s="408" t="s">
+      <c r="K7" s="411" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="409"/>
-      <c r="M7" s="410"/>
+      <c r="L7" s="412"/>
+      <c r="M7" s="413"/>
     </row>
     <row r="8" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B8" s="357" t="s">
@@ -10293,7 +10293,7 @@
       <c r="C8" s="358">
         <v>2000000</v>
       </c>
-      <c r="D8" s="419"/>
+      <c r="D8" s="421"/>
       <c r="E8" s="359" t="s">
         <v>1</v>
       </c>
@@ -10318,7 +10318,7 @@
       <c r="C9" s="361">
         <v>41295.26</v>
       </c>
-      <c r="D9" s="419"/>
+      <c r="D9" s="421"/>
       <c r="E9" s="359" t="s">
         <v>4</v>
       </c>
@@ -10339,7 +10339,7 @@
     <row r="10" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="B10" s="357"/>
       <c r="C10" s="361"/>
-      <c r="D10" s="419"/>
+      <c r="D10" s="421"/>
       <c r="E10" s="359" t="s">
         <v>7</v>
       </c>
@@ -10364,7 +10364,7 @@
       <c r="C11" s="361">
         <v>31800</v>
       </c>
-      <c r="D11" s="419"/>
+      <c r="D11" s="421"/>
       <c r="E11" s="359" t="s">
         <v>2</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="361"/>
-      <c r="D12" s="419"/>
+      <c r="D12" s="421"/>
       <c r="E12" s="359" t="s">
         <v>148</v>
       </c>
@@ -10406,7 +10406,7 @@
     <row r="13" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="357"/>
       <c r="C13" s="365"/>
-      <c r="D13" s="419"/>
+      <c r="D13" s="421"/>
       <c r="E13" s="366"/>
       <c r="F13" s="362"/>
       <c r="G13" s="20"/>
@@ -10423,7 +10423,7 @@
     <row r="14" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="367"/>
       <c r="C14" s="368"/>
-      <c r="D14" s="419"/>
+      <c r="D14" s="421"/>
       <c r="E14" s="359" t="s">
         <v>5</v>
       </c>
@@ -10453,7 +10453,7 @@
         <f>C9-C11-C12-C14</f>
         <v>9495.260000000002</v>
       </c>
-      <c r="D15" s="419"/>
+      <c r="D15" s="421"/>
       <c r="E15" s="359" t="s">
         <v>16</v>
       </c>
@@ -10472,7 +10472,7 @@
     <row r="16" spans="2:13" ht="21.75" x14ac:dyDescent="0.3">
       <c r="B16" s="367"/>
       <c r="C16" s="368"/>
-      <c r="D16" s="419"/>
+      <c r="D16" s="421"/>
       <c r="E16" s="366"/>
       <c r="F16" s="369"/>
       <c r="G16" s="20"/>
@@ -10489,7 +10489,7 @@
     <row r="17" spans="2:13" s="23" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
       <c r="B17" s="357"/>
       <c r="C17" s="361"/>
-      <c r="D17" s="419"/>
+      <c r="D17" s="421"/>
       <c r="E17" s="359"/>
       <c r="F17" s="370"/>
       <c r="G17" s="22"/>
@@ -10509,7 +10509,7 @@
         <f>C8+C9-C11-C14-C16</f>
         <v>2009495.26</v>
       </c>
-      <c r="D18" s="419"/>
+      <c r="D18" s="421"/>
       <c r="E18" s="359" t="s">
         <v>3</v>
       </c>
@@ -10531,7 +10531,7 @@
     <row r="19" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="371"/>
       <c r="C19" s="372"/>
-      <c r="D19" s="420"/>
+      <c r="D19" s="422"/>
       <c r="E19" s="373"/>
       <c r="F19" s="374"/>
       <c r="G19" s="20"/>
@@ -10546,11 +10546,11 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="411"/>
-      <c r="C20" s="412"/>
-      <c r="D20" s="412"/>
-      <c r="E20" s="412"/>
-      <c r="F20" s="413"/>
+      <c r="B20" s="414"/>
+      <c r="C20" s="415"/>
+      <c r="D20" s="415"/>
+      <c r="E20" s="415"/>
+      <c r="F20" s="416"/>
       <c r="G20" s="24"/>
       <c r="K20" s="161"/>
       <c r="L20" s="161"/>
@@ -10845,11 +10845,11 @@
       <c r="M54" s="78"/>
     </row>
     <row r="55" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K55" s="484" t="s">
+      <c r="K55" s="403" t="s">
         <v>31</v>
       </c>
-      <c r="L55" s="485"/>
-      <c r="M55" s="486">
+      <c r="L55" s="404"/>
+      <c r="M55" s="375">
         <f>SUM(M9:M54)</f>
         <v>199258</v>
       </c>
@@ -10879,9 +10879,9 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10910,116 +10910,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="427" t="s">
+      <c r="A1" s="433" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="427"/>
-      <c r="C1" s="427"/>
-      <c r="D1" s="427"/>
-      <c r="E1" s="427"/>
-      <c r="F1" s="427"/>
-      <c r="G1" s="427"/>
-      <c r="H1" s="427"/>
-      <c r="I1" s="427"/>
-      <c r="J1" s="427"/>
-      <c r="K1" s="427"/>
-      <c r="L1" s="427"/>
-      <c r="M1" s="427"/>
-      <c r="N1" s="427"/>
-      <c r="O1" s="427"/>
-      <c r="P1" s="427"/>
-      <c r="Q1" s="427"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="433"/>
+      <c r="F1" s="433"/>
+      <c r="G1" s="433"/>
+      <c r="H1" s="433"/>
+      <c r="I1" s="433"/>
+      <c r="J1" s="433"/>
+      <c r="K1" s="433"/>
+      <c r="L1" s="433"/>
+      <c r="M1" s="433"/>
+      <c r="N1" s="433"/>
+      <c r="O1" s="433"/>
+      <c r="P1" s="433"/>
+      <c r="Q1" s="433"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="427"/>
-      <c r="B2" s="427"/>
-      <c r="C2" s="427"/>
-      <c r="D2" s="427"/>
-      <c r="E2" s="427"/>
-      <c r="F2" s="427"/>
-      <c r="G2" s="427"/>
-      <c r="H2" s="427"/>
-      <c r="I2" s="427"/>
-      <c r="J2" s="427"/>
-      <c r="K2" s="427"/>
-      <c r="L2" s="427"/>
-      <c r="M2" s="427"/>
-      <c r="N2" s="427"/>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
+      <c r="A2" s="433"/>
+      <c r="B2" s="433"/>
+      <c r="C2" s="433"/>
+      <c r="D2" s="433"/>
+      <c r="E2" s="433"/>
+      <c r="F2" s="433"/>
+      <c r="G2" s="433"/>
+      <c r="H2" s="433"/>
+      <c r="I2" s="433"/>
+      <c r="J2" s="433"/>
+      <c r="K2" s="433"/>
+      <c r="L2" s="433"/>
+      <c r="M2" s="433"/>
+      <c r="N2" s="433"/>
+      <c r="O2" s="433"/>
+      <c r="P2" s="433"/>
+      <c r="Q2" s="433"/>
     </row>
     <row r="3" spans="1:22" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="428" t="s">
+      <c r="A3" s="434" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="428"/>
-      <c r="C3" s="428"/>
-      <c r="D3" s="428"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="428"/>
-      <c r="G3" s="428"/>
-      <c r="H3" s="428"/>
-      <c r="I3" s="428"/>
-      <c r="J3" s="428"/>
-      <c r="K3" s="428"/>
-      <c r="L3" s="428"/>
-      <c r="M3" s="428"/>
-      <c r="N3" s="428"/>
-      <c r="O3" s="428"/>
-      <c r="P3" s="428"/>
-      <c r="Q3" s="428"/>
+      <c r="B3" s="434"/>
+      <c r="C3" s="434"/>
+      <c r="D3" s="434"/>
+      <c r="E3" s="434"/>
+      <c r="F3" s="434"/>
+      <c r="G3" s="434"/>
+      <c r="H3" s="434"/>
+      <c r="I3" s="434"/>
+      <c r="J3" s="434"/>
+      <c r="K3" s="434"/>
+      <c r="L3" s="434"/>
+      <c r="M3" s="434"/>
+      <c r="N3" s="434"/>
+      <c r="O3" s="434"/>
+      <c r="P3" s="434"/>
+      <c r="Q3" s="434"/>
     </row>
     <row r="4" spans="1:22" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="429" t="s">
+      <c r="A4" s="435" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="429"/>
-      <c r="C4" s="429"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="429"/>
-      <c r="F4" s="429"/>
-      <c r="G4" s="429"/>
-      <c r="H4" s="429"/>
-      <c r="I4" s="429"/>
-      <c r="J4" s="429"/>
-      <c r="K4" s="429"/>
-      <c r="L4" s="429"/>
-      <c r="M4" s="429"/>
-      <c r="N4" s="429"/>
-      <c r="O4" s="429"/>
-      <c r="P4" s="429"/>
-      <c r="Q4" s="429"/>
+      <c r="B4" s="435"/>
+      <c r="C4" s="435"/>
+      <c r="D4" s="435"/>
+      <c r="E4" s="435"/>
+      <c r="F4" s="435"/>
+      <c r="G4" s="435"/>
+      <c r="H4" s="435"/>
+      <c r="I4" s="435"/>
+      <c r="J4" s="435"/>
+      <c r="K4" s="435"/>
+      <c r="L4" s="435"/>
+      <c r="M4" s="435"/>
+      <c r="N4" s="435"/>
+      <c r="O4" s="435"/>
+      <c r="P4" s="435"/>
+      <c r="Q4" s="435"/>
     </row>
     <row r="5" spans="1:22" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="434" t="s">
+      <c r="A5" s="440" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="435"/>
-      <c r="C5" s="436"/>
+      <c r="B5" s="441"/>
+      <c r="C5" s="442"/>
       <c r="D5" s="330" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="330"/>
-      <c r="F5" s="430" t="s">
+      <c r="F5" s="436" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="431"/>
-      <c r="H5" s="431"/>
-      <c r="I5" s="431"/>
-      <c r="J5" s="431"/>
-      <c r="K5" s="431"/>
-      <c r="L5" s="431"/>
-      <c r="M5" s="431"/>
-      <c r="N5" s="431"/>
-      <c r="O5" s="431"/>
-      <c r="P5" s="431"/>
-      <c r="Q5" s="432"/>
-      <c r="T5" s="424" t="s">
+      <c r="G5" s="437"/>
+      <c r="H5" s="437"/>
+      <c r="I5" s="437"/>
+      <c r="J5" s="437"/>
+      <c r="K5" s="437"/>
+      <c r="L5" s="437"/>
+      <c r="M5" s="437"/>
+      <c r="N5" s="437"/>
+      <c r="O5" s="437"/>
+      <c r="P5" s="437"/>
+      <c r="Q5" s="438"/>
+      <c r="T5" s="430" t="s">
         <v>100</v>
       </c>
-      <c r="U5" s="425"/>
-      <c r="V5" s="426"/>
+      <c r="U5" s="431"/>
+      <c r="V5" s="432"/>
     </row>
     <row r="6" spans="1:22" s="322" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="342" t="s">
@@ -11564,11 +11564,11 @@
       <c r="O19" s="141"/>
       <c r="P19" s="141"/>
       <c r="Q19" s="146"/>
-      <c r="T19" s="433" t="s">
+      <c r="T19" s="439" t="s">
         <v>123</v>
       </c>
-      <c r="U19" s="433"/>
-      <c r="V19" s="433"/>
+      <c r="U19" s="439"/>
+      <c r="V19" s="439"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="125">
@@ -11876,11 +11876,11 @@
       <c r="Q28" s="146"/>
     </row>
     <row r="29" spans="1:22" s="130" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="421" t="s">
+      <c r="A29" s="427" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="422"/>
-      <c r="C29" s="423"/>
+      <c r="B29" s="428"/>
+      <c r="C29" s="429"/>
       <c r="D29" s="172">
         <f t="shared" ref="D29:P29" si="1">SUM(D7:D28)</f>
         <v>0</v>
@@ -12634,116 +12634,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="427" t="s">
+      <c r="A1" s="433" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="427"/>
-      <c r="C1" s="427"/>
-      <c r="D1" s="427"/>
-      <c r="E1" s="427"/>
-      <c r="F1" s="427"/>
-      <c r="G1" s="427"/>
-      <c r="H1" s="427"/>
-      <c r="I1" s="427"/>
-      <c r="J1" s="427"/>
-      <c r="K1" s="427"/>
-      <c r="L1" s="427"/>
-      <c r="M1" s="427"/>
-      <c r="N1" s="427"/>
-      <c r="O1" s="427"/>
-      <c r="P1" s="427"/>
-      <c r="Q1" s="427"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="433"/>
+      <c r="F1" s="433"/>
+      <c r="G1" s="433"/>
+      <c r="H1" s="433"/>
+      <c r="I1" s="433"/>
+      <c r="J1" s="433"/>
+      <c r="K1" s="433"/>
+      <c r="L1" s="433"/>
+      <c r="M1" s="433"/>
+      <c r="N1" s="433"/>
+      <c r="O1" s="433"/>
+      <c r="P1" s="433"/>
+      <c r="Q1" s="433"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="427"/>
-      <c r="B2" s="427"/>
-      <c r="C2" s="427"/>
-      <c r="D2" s="427"/>
-      <c r="E2" s="427"/>
-      <c r="F2" s="427"/>
-      <c r="G2" s="427"/>
-      <c r="H2" s="427"/>
-      <c r="I2" s="427"/>
-      <c r="J2" s="427"/>
-      <c r="K2" s="427"/>
-      <c r="L2" s="427"/>
-      <c r="M2" s="427"/>
-      <c r="N2" s="427"/>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
+      <c r="A2" s="433"/>
+      <c r="B2" s="433"/>
+      <c r="C2" s="433"/>
+      <c r="D2" s="433"/>
+      <c r="E2" s="433"/>
+      <c r="F2" s="433"/>
+      <c r="G2" s="433"/>
+      <c r="H2" s="433"/>
+      <c r="I2" s="433"/>
+      <c r="J2" s="433"/>
+      <c r="K2" s="433"/>
+      <c r="L2" s="433"/>
+      <c r="M2" s="433"/>
+      <c r="N2" s="433"/>
+      <c r="O2" s="433"/>
+      <c r="P2" s="433"/>
+      <c r="Q2" s="433"/>
     </row>
     <row r="3" spans="1:22" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="428" t="s">
+      <c r="A3" s="434" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="428"/>
-      <c r="C3" s="428"/>
-      <c r="D3" s="428"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="428"/>
-      <c r="G3" s="428"/>
-      <c r="H3" s="428"/>
-      <c r="I3" s="428"/>
-      <c r="J3" s="428"/>
-      <c r="K3" s="428"/>
-      <c r="L3" s="428"/>
-      <c r="M3" s="428"/>
-      <c r="N3" s="428"/>
-      <c r="O3" s="428"/>
-      <c r="P3" s="428"/>
-      <c r="Q3" s="428"/>
+      <c r="B3" s="434"/>
+      <c r="C3" s="434"/>
+      <c r="D3" s="434"/>
+      <c r="E3" s="434"/>
+      <c r="F3" s="434"/>
+      <c r="G3" s="434"/>
+      <c r="H3" s="434"/>
+      <c r="I3" s="434"/>
+      <c r="J3" s="434"/>
+      <c r="K3" s="434"/>
+      <c r="L3" s="434"/>
+      <c r="M3" s="434"/>
+      <c r="N3" s="434"/>
+      <c r="O3" s="434"/>
+      <c r="P3" s="434"/>
+      <c r="Q3" s="434"/>
     </row>
     <row r="4" spans="1:22" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="429" t="s">
+      <c r="A4" s="435" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="429"/>
-      <c r="C4" s="429"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="429"/>
-      <c r="F4" s="429"/>
-      <c r="G4" s="429"/>
-      <c r="H4" s="429"/>
-      <c r="I4" s="429"/>
-      <c r="J4" s="429"/>
-      <c r="K4" s="429"/>
-      <c r="L4" s="429"/>
-      <c r="M4" s="429"/>
-      <c r="N4" s="429"/>
-      <c r="O4" s="429"/>
-      <c r="P4" s="429"/>
-      <c r="Q4" s="429"/>
+      <c r="B4" s="435"/>
+      <c r="C4" s="435"/>
+      <c r="D4" s="435"/>
+      <c r="E4" s="435"/>
+      <c r="F4" s="435"/>
+      <c r="G4" s="435"/>
+      <c r="H4" s="435"/>
+      <c r="I4" s="435"/>
+      <c r="J4" s="435"/>
+      <c r="K4" s="435"/>
+      <c r="L4" s="435"/>
+      <c r="M4" s="435"/>
+      <c r="N4" s="435"/>
+      <c r="O4" s="435"/>
+      <c r="P4" s="435"/>
+      <c r="Q4" s="435"/>
     </row>
     <row r="5" spans="1:22" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="440" t="s">
+      <c r="A5" s="446" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="441"/>
+      <c r="B5" s="447"/>
       <c r="C5" s="164"/>
       <c r="D5" s="165" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="165"/>
-      <c r="F5" s="425" t="s">
+      <c r="F5" s="431" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="425"/>
-      <c r="H5" s="425"/>
-      <c r="I5" s="425"/>
-      <c r="J5" s="425"/>
-      <c r="K5" s="425"/>
-      <c r="L5" s="425"/>
-      <c r="M5" s="425"/>
-      <c r="N5" s="425"/>
-      <c r="O5" s="425"/>
-      <c r="P5" s="425"/>
-      <c r="Q5" s="426"/>
-      <c r="T5" s="424" t="s">
+      <c r="G5" s="431"/>
+      <c r="H5" s="431"/>
+      <c r="I5" s="431"/>
+      <c r="J5" s="431"/>
+      <c r="K5" s="431"/>
+      <c r="L5" s="431"/>
+      <c r="M5" s="431"/>
+      <c r="N5" s="431"/>
+      <c r="O5" s="431"/>
+      <c r="P5" s="431"/>
+      <c r="Q5" s="432"/>
+      <c r="T5" s="430" t="s">
         <v>100</v>
       </c>
-      <c r="U5" s="425"/>
-      <c r="V5" s="426"/>
+      <c r="U5" s="431"/>
+      <c r="V5" s="432"/>
     </row>
     <row r="6" spans="1:22" s="121" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" s="166" t="s">
@@ -12944,11 +12944,11 @@
       <c r="O10" s="145"/>
       <c r="P10" s="141"/>
       <c r="Q10" s="146"/>
-      <c r="T10" s="437" t="s">
+      <c r="T10" s="443" t="s">
         <v>110</v>
       </c>
-      <c r="U10" s="438"/>
-      <c r="V10" s="439"/>
+      <c r="U10" s="444"/>
+      <c r="V10" s="445"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="125">
@@ -13037,11 +13037,11 @@
       <c r="O13" s="141"/>
       <c r="P13" s="141"/>
       <c r="Q13" s="146"/>
-      <c r="T13" s="437" t="s">
+      <c r="T13" s="443" t="s">
         <v>112</v>
       </c>
-      <c r="U13" s="438"/>
-      <c r="V13" s="439"/>
+      <c r="U13" s="444"/>
+      <c r="V13" s="445"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147">
@@ -13397,11 +13397,11 @@
       <c r="Q27" s="146"/>
     </row>
     <row r="28" spans="1:21" s="130" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="421" t="s">
+      <c r="A28" s="427" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="422"/>
-      <c r="C28" s="423"/>
+      <c r="B28" s="428"/>
+      <c r="C28" s="429"/>
       <c r="D28" s="172">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -14136,61 +14136,61 @@
   <sheetData>
     <row r="1" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="443" t="s">
+      <c r="B2" s="449" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="444"/>
-      <c r="D2" s="444"/>
-      <c r="E2" s="444"/>
-      <c r="F2" s="444"/>
-      <c r="G2" s="445"/>
-      <c r="H2" s="445"/>
-      <c r="I2" s="445"/>
-      <c r="J2" s="445"/>
-      <c r="K2" s="445"/>
-      <c r="L2" s="445"/>
-      <c r="M2" s="445"/>
-      <c r="N2" s="445"/>
-      <c r="O2" s="445"/>
-      <c r="P2" s="445"/>
-      <c r="Q2" s="445"/>
-      <c r="R2" s="445"/>
-      <c r="S2" s="445"/>
-      <c r="T2" s="445"/>
-      <c r="U2" s="445"/>
-      <c r="V2" s="445"/>
-      <c r="W2" s="445"/>
-      <c r="X2" s="446"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
+      <c r="G2" s="451"/>
+      <c r="H2" s="451"/>
+      <c r="I2" s="451"/>
+      <c r="J2" s="451"/>
+      <c r="K2" s="451"/>
+      <c r="L2" s="451"/>
+      <c r="M2" s="451"/>
+      <c r="N2" s="451"/>
+      <c r="O2" s="451"/>
+      <c r="P2" s="451"/>
+      <c r="Q2" s="451"/>
+      <c r="R2" s="451"/>
+      <c r="S2" s="451"/>
+      <c r="T2" s="451"/>
+      <c r="U2" s="451"/>
+      <c r="V2" s="451"/>
+      <c r="W2" s="451"/>
+      <c r="X2" s="452"/>
       <c r="Y2" s="225"/>
     </row>
     <row r="3" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="449" t="s">
+      <c r="B3" s="455" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="450"/>
-      <c r="D3" s="450"/>
-      <c r="E3" s="450"/>
-      <c r="F3" s="451"/>
-      <c r="G3" s="453"/>
-      <c r="H3" s="453"/>
-      <c r="I3" s="453"/>
-      <c r="J3" s="453"/>
-      <c r="K3" s="453"/>
-      <c r="L3" s="447" t="s">
+      <c r="C3" s="456"/>
+      <c r="D3" s="456"/>
+      <c r="E3" s="456"/>
+      <c r="F3" s="457"/>
+      <c r="G3" s="459"/>
+      <c r="H3" s="459"/>
+      <c r="I3" s="459"/>
+      <c r="J3" s="459"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="453" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="447"/>
-      <c r="N3" s="447"/>
-      <c r="O3" s="447"/>
-      <c r="P3" s="447"/>
-      <c r="Q3" s="447"/>
-      <c r="R3" s="447"/>
-      <c r="S3" s="447"/>
-      <c r="T3" s="447"/>
-      <c r="U3" s="447"/>
-      <c r="V3" s="447"/>
-      <c r="W3" s="447"/>
-      <c r="X3" s="448"/>
+      <c r="M3" s="453"/>
+      <c r="N3" s="453"/>
+      <c r="O3" s="453"/>
+      <c r="P3" s="453"/>
+      <c r="Q3" s="453"/>
+      <c r="R3" s="453"/>
+      <c r="S3" s="453"/>
+      <c r="T3" s="453"/>
+      <c r="U3" s="453"/>
+      <c r="V3" s="453"/>
+      <c r="W3" s="453"/>
+      <c r="X3" s="454"/>
       <c r="Y3" s="227"/>
       <c r="Z3" s="227"/>
       <c r="AA3" s="227"/>
@@ -14201,42 +14201,42 @@
     </row>
     <row r="4" spans="2:31" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="319"/>
-      <c r="C4" s="442" t="s">
+      <c r="C4" s="448" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="442" t="s">
+      <c r="D4" s="448"/>
+      <c r="E4" s="448"/>
+      <c r="F4" s="448" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="442"/>
-      <c r="H4" s="442"/>
-      <c r="I4" s="442" t="s">
+      <c r="G4" s="448"/>
+      <c r="H4" s="448"/>
+      <c r="I4" s="448" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="442"/>
-      <c r="K4" s="442"/>
-      <c r="L4" s="442" t="s">
+      <c r="J4" s="448"/>
+      <c r="K4" s="448"/>
+      <c r="L4" s="448" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="442"/>
-      <c r="N4" s="442"/>
-      <c r="O4" s="442" t="s">
+      <c r="M4" s="448"/>
+      <c r="N4" s="448"/>
+      <c r="O4" s="448" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="442"/>
-      <c r="Q4" s="442"/>
-      <c r="R4" s="442" t="s">
+      <c r="P4" s="448"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="448" t="s">
         <v>108</v>
       </c>
-      <c r="S4" s="442"/>
-      <c r="T4" s="442"/>
-      <c r="U4" s="442" t="s">
+      <c r="S4" s="448"/>
+      <c r="T4" s="448"/>
+      <c r="U4" s="448" t="s">
         <v>107</v>
       </c>
-      <c r="V4" s="442"/>
-      <c r="W4" s="442"/>
-      <c r="X4" s="452" t="s">
+      <c r="V4" s="448"/>
+      <c r="W4" s="448"/>
+      <c r="X4" s="458" t="s">
         <v>109</v>
       </c>
       <c r="Y4" s="227"/>
@@ -14314,7 +14314,7 @@
       <c r="W5" s="318" t="s">
         <v>103</v>
       </c>
-      <c r="X5" s="452"/>
+      <c r="X5" s="458"/>
       <c r="Y5" s="227"/>
       <c r="Z5" s="227"/>
       <c r="AA5" s="227"/>
@@ -15429,99 +15429,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="434" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
-      <c r="F1" s="428"/>
-      <c r="G1" s="428"/>
-      <c r="H1" s="428"/>
-      <c r="I1" s="428"/>
-      <c r="J1" s="428"/>
-      <c r="K1" s="428"/>
-      <c r="L1" s="428"/>
-      <c r="M1" s="428"/>
-      <c r="N1" s="428"/>
-      <c r="O1" s="428"/>
-      <c r="P1" s="428"/>
-      <c r="Q1" s="428"/>
-      <c r="R1" s="428"/>
-      <c r="S1" s="428"/>
-      <c r="T1" s="428"/>
-      <c r="U1" s="428"/>
-      <c r="V1" s="428"/>
-      <c r="W1" s="428"/>
+      <c r="B1" s="434"/>
+      <c r="C1" s="434"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
+      <c r="N1" s="434"/>
+      <c r="O1" s="434"/>
+      <c r="P1" s="434"/>
+      <c r="Q1" s="434"/>
+      <c r="R1" s="434"/>
+      <c r="S1" s="434"/>
+      <c r="T1" s="434"/>
+      <c r="U1" s="434"/>
+      <c r="V1" s="434"/>
+      <c r="W1" s="434"/>
     </row>
     <row r="2" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="459" t="s">
+      <c r="A2" s="465" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="459"/>
-      <c r="C2" s="459"/>
-      <c r="D2" s="459"/>
-      <c r="E2" s="459"/>
-      <c r="F2" s="460"/>
-      <c r="G2" s="429"/>
-      <c r="H2" s="429"/>
-      <c r="I2" s="429"/>
-      <c r="J2" s="429"/>
-      <c r="K2" s="461" t="s">
+      <c r="B2" s="465"/>
+      <c r="C2" s="465"/>
+      <c r="D2" s="465"/>
+      <c r="E2" s="465"/>
+      <c r="F2" s="466"/>
+      <c r="G2" s="435"/>
+      <c r="H2" s="435"/>
+      <c r="I2" s="435"/>
+      <c r="J2" s="435"/>
+      <c r="K2" s="467" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="461"/>
-      <c r="M2" s="461"/>
-      <c r="N2" s="461"/>
-      <c r="O2" s="461"/>
-      <c r="P2" s="461"/>
-      <c r="Q2" s="461"/>
-      <c r="R2" s="461"/>
-      <c r="S2" s="461"/>
-      <c r="T2" s="461"/>
-      <c r="U2" s="461"/>
-      <c r="V2" s="461"/>
-      <c r="W2" s="461"/>
+      <c r="L2" s="467"/>
+      <c r="M2" s="467"/>
+      <c r="N2" s="467"/>
+      <c r="O2" s="467"/>
+      <c r="P2" s="467"/>
+      <c r="Q2" s="467"/>
+      <c r="R2" s="467"/>
+      <c r="S2" s="467"/>
+      <c r="T2" s="467"/>
+      <c r="U2" s="467"/>
+      <c r="V2" s="467"/>
+      <c r="W2" s="467"/>
     </row>
     <row r="3" spans="1:23" s="120" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="215"/>
-      <c r="B3" s="454" t="s">
+      <c r="B3" s="460" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="455"/>
-      <c r="D3" s="456"/>
-      <c r="E3" s="454" t="s">
+      <c r="C3" s="461"/>
+      <c r="D3" s="462"/>
+      <c r="E3" s="460" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="455"/>
-      <c r="G3" s="456"/>
-      <c r="H3" s="454" t="s">
+      <c r="F3" s="461"/>
+      <c r="G3" s="462"/>
+      <c r="H3" s="460" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="455"/>
-      <c r="J3" s="456"/>
-      <c r="K3" s="454" t="s">
+      <c r="I3" s="461"/>
+      <c r="J3" s="462"/>
+      <c r="K3" s="460" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="455"/>
-      <c r="M3" s="456"/>
-      <c r="N3" s="454" t="s">
+      <c r="L3" s="461"/>
+      <c r="M3" s="462"/>
+      <c r="N3" s="460" t="s">
         <v>106</v>
       </c>
-      <c r="O3" s="455"/>
-      <c r="P3" s="456"/>
-      <c r="Q3" s="454" t="s">
+      <c r="O3" s="461"/>
+      <c r="P3" s="462"/>
+      <c r="Q3" s="460" t="s">
         <v>108</v>
       </c>
-      <c r="R3" s="455"/>
-      <c r="S3" s="456"/>
-      <c r="T3" s="454" t="s">
+      <c r="R3" s="461"/>
+      <c r="S3" s="462"/>
+      <c r="T3" s="460" t="s">
         <v>107</v>
       </c>
-      <c r="U3" s="455"/>
-      <c r="V3" s="456"/>
-      <c r="W3" s="457" t="s">
+      <c r="U3" s="461"/>
+      <c r="V3" s="462"/>
+      <c r="W3" s="463" t="s">
         <v>109</v>
       </c>
     </row>
@@ -15592,7 +15592,7 @@
       <c r="V4" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="W4" s="458"/>
+      <c r="W4" s="464"/>
     </row>
     <row r="5" spans="1:23" s="120" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="188">
@@ -16109,14 +16109,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="427" t="s">
+      <c r="A1" s="433" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="427"/>
-      <c r="C1" s="427"/>
-      <c r="D1" s="427"/>
-      <c r="E1" s="427"/>
-      <c r="F1" s="427"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="433"/>
+      <c r="F1" s="433"/>
       <c r="G1" s="276"/>
       <c r="H1" s="276"/>
       <c r="I1" s="276"/>
@@ -16130,12 +16130,12 @@
       <c r="Q1" s="276"/>
     </row>
     <row r="2" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="427"/>
-      <c r="B2" s="427"/>
-      <c r="C2" s="427"/>
-      <c r="D2" s="427"/>
-      <c r="E2" s="427"/>
-      <c r="F2" s="427"/>
+      <c r="A2" s="433"/>
+      <c r="B2" s="433"/>
+      <c r="C2" s="433"/>
+      <c r="D2" s="433"/>
+      <c r="E2" s="433"/>
+      <c r="F2" s="433"/>
       <c r="G2" s="276"/>
       <c r="H2" s="276"/>
       <c r="I2" s="276"/>
@@ -16149,14 +16149,14 @@
       <c r="Q2" s="276"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="428" t="s">
+      <c r="A3" s="434" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="428"/>
-      <c r="C3" s="428"/>
-      <c r="D3" s="428"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="428"/>
+      <c r="B3" s="434"/>
+      <c r="C3" s="434"/>
+      <c r="D3" s="434"/>
+      <c r="E3" s="434"/>
+      <c r="F3" s="434"/>
       <c r="G3" s="277"/>
       <c r="H3" s="277"/>
       <c r="I3" s="277"/>
@@ -16170,14 +16170,14 @@
       <c r="Q3" s="277"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="429" t="s">
+      <c r="A4" s="435" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="429"/>
-      <c r="C4" s="429"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="429"/>
-      <c r="F4" s="429"/>
+      <c r="B4" s="435"/>
+      <c r="C4" s="435"/>
+      <c r="D4" s="435"/>
+      <c r="E4" s="435"/>
+      <c r="F4" s="435"/>
       <c r="G4" s="275"/>
       <c r="H4" s="275"/>
       <c r="I4" s="275"/>
@@ -16194,17 +16194,17 @@
       <c r="A5" s="304" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="467" t="s">
+      <c r="B5" s="473" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="467"/>
+      <c r="C5" s="473"/>
       <c r="D5" s="305" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="462" t="s">
+      <c r="E5" s="468" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="463"/>
+      <c r="F5" s="469"/>
       <c r="G5" s="275"/>
       <c r="H5" s="275"/>
       <c r="I5" s="275"/>
@@ -16221,17 +16221,17 @@
       <c r="A6" s="306" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="464" t="s">
+      <c r="B6" s="470" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="464"/>
+      <c r="C6" s="470"/>
       <c r="D6" s="307" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="465" t="s">
+      <c r="E6" s="471" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="466"/>
+      <c r="F6" s="472"/>
       <c r="G6" s="275"/>
       <c r="H6" s="275"/>
       <c r="I6" s="275"/>
@@ -17018,114 +17018,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="427" t="s">
+      <c r="A1" s="433" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="427"/>
-      <c r="C1" s="427"/>
-      <c r="D1" s="427"/>
-      <c r="E1" s="427"/>
-      <c r="F1" s="427"/>
-      <c r="G1" s="427"/>
-      <c r="H1" s="427"/>
-      <c r="I1" s="427"/>
-      <c r="J1" s="427"/>
-      <c r="K1" s="427"/>
-      <c r="L1" s="427"/>
-      <c r="M1" s="427"/>
-      <c r="N1" s="427"/>
-      <c r="O1" s="427"/>
-      <c r="P1" s="427"/>
-      <c r="Q1" s="427"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="433"/>
+      <c r="F1" s="433"/>
+      <c r="G1" s="433"/>
+      <c r="H1" s="433"/>
+      <c r="I1" s="433"/>
+      <c r="J1" s="433"/>
+      <c r="K1" s="433"/>
+      <c r="L1" s="433"/>
+      <c r="M1" s="433"/>
+      <c r="N1" s="433"/>
+      <c r="O1" s="433"/>
+      <c r="P1" s="433"/>
+      <c r="Q1" s="433"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="427"/>
-      <c r="B2" s="427"/>
-      <c r="C2" s="427"/>
-      <c r="D2" s="427"/>
-      <c r="E2" s="427"/>
-      <c r="F2" s="427"/>
-      <c r="G2" s="427"/>
-      <c r="H2" s="427"/>
-      <c r="I2" s="427"/>
-      <c r="J2" s="427"/>
-      <c r="K2" s="427"/>
-      <c r="L2" s="427"/>
-      <c r="M2" s="427"/>
-      <c r="N2" s="427"/>
-      <c r="O2" s="427"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
+      <c r="A2" s="433"/>
+      <c r="B2" s="433"/>
+      <c r="C2" s="433"/>
+      <c r="D2" s="433"/>
+      <c r="E2" s="433"/>
+      <c r="F2" s="433"/>
+      <c r="G2" s="433"/>
+      <c r="H2" s="433"/>
+      <c r="I2" s="433"/>
+      <c r="J2" s="433"/>
+      <c r="K2" s="433"/>
+      <c r="L2" s="433"/>
+      <c r="M2" s="433"/>
+      <c r="N2" s="433"/>
+      <c r="O2" s="433"/>
+      <c r="P2" s="433"/>
+      <c r="Q2" s="433"/>
     </row>
     <row r="3" spans="1:22" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="428" t="s">
+      <c r="A3" s="434" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="428"/>
-      <c r="C3" s="428"/>
-      <c r="D3" s="428"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="428"/>
-      <c r="G3" s="428"/>
-      <c r="H3" s="428"/>
-      <c r="I3" s="428"/>
-      <c r="J3" s="428"/>
-      <c r="K3" s="428"/>
-      <c r="L3" s="428"/>
-      <c r="M3" s="428"/>
-      <c r="N3" s="428"/>
-      <c r="O3" s="428"/>
-      <c r="P3" s="428"/>
-      <c r="Q3" s="428"/>
+      <c r="B3" s="434"/>
+      <c r="C3" s="434"/>
+      <c r="D3" s="434"/>
+      <c r="E3" s="434"/>
+      <c r="F3" s="434"/>
+      <c r="G3" s="434"/>
+      <c r="H3" s="434"/>
+      <c r="I3" s="434"/>
+      <c r="J3" s="434"/>
+      <c r="K3" s="434"/>
+      <c r="L3" s="434"/>
+      <c r="M3" s="434"/>
+      <c r="N3" s="434"/>
+      <c r="O3" s="434"/>
+      <c r="P3" s="434"/>
+      <c r="Q3" s="434"/>
     </row>
     <row r="4" spans="1:22" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="429" t="s">
+      <c r="A4" s="435" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="429"/>
-      <c r="C4" s="429"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="429"/>
-      <c r="F4" s="429"/>
-      <c r="G4" s="429"/>
-      <c r="H4" s="429"/>
-      <c r="I4" s="429"/>
-      <c r="J4" s="429"/>
-      <c r="K4" s="429"/>
-      <c r="L4" s="429"/>
-      <c r="M4" s="429"/>
-      <c r="N4" s="429"/>
-      <c r="O4" s="429"/>
-      <c r="P4" s="429"/>
-      <c r="Q4" s="429"/>
+      <c r="B4" s="435"/>
+      <c r="C4" s="435"/>
+      <c r="D4" s="435"/>
+      <c r="E4" s="435"/>
+      <c r="F4" s="435"/>
+      <c r="G4" s="435"/>
+      <c r="H4" s="435"/>
+      <c r="I4" s="435"/>
+      <c r="J4" s="435"/>
+      <c r="K4" s="435"/>
+      <c r="L4" s="435"/>
+      <c r="M4" s="435"/>
+      <c r="N4" s="435"/>
+      <c r="O4" s="435"/>
+      <c r="P4" s="435"/>
+      <c r="Q4" s="435"/>
     </row>
     <row r="5" spans="1:22" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="440" t="s">
+      <c r="A5" s="446" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="441"/>
+      <c r="B5" s="447"/>
       <c r="C5" s="164"/>
       <c r="D5" s="165" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="165"/>
-      <c r="F5" s="425" t="s">
+      <c r="F5" s="431" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="425"/>
-      <c r="H5" s="425"/>
-      <c r="I5" s="425"/>
-      <c r="J5" s="425"/>
-      <c r="K5" s="425"/>
-      <c r="L5" s="425"/>
-      <c r="M5" s="425"/>
-      <c r="N5" s="425"/>
-      <c r="O5" s="425"/>
-      <c r="P5" s="425"/>
-      <c r="Q5" s="426"/>
-      <c r="T5" s="424"/>
-      <c r="U5" s="425"/>
-      <c r="V5" s="426"/>
+      <c r="G5" s="431"/>
+      <c r="H5" s="431"/>
+      <c r="I5" s="431"/>
+      <c r="J5" s="431"/>
+      <c r="K5" s="431"/>
+      <c r="L5" s="431"/>
+      <c r="M5" s="431"/>
+      <c r="N5" s="431"/>
+      <c r="O5" s="431"/>
+      <c r="P5" s="431"/>
+      <c r="Q5" s="432"/>
+      <c r="T5" s="430"/>
+      <c r="U5" s="431"/>
+      <c r="V5" s="432"/>
     </row>
     <row r="6" spans="1:22" s="121" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" s="166" t="s">
@@ -17294,9 +17294,9 @@
       <c r="O10" s="145"/>
       <c r="P10" s="141"/>
       <c r="Q10" s="146"/>
-      <c r="T10" s="437"/>
-      <c r="U10" s="438"/>
-      <c r="V10" s="439"/>
+      <c r="T10" s="443"/>
+      <c r="U10" s="444"/>
+      <c r="V10" s="445"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="125">
@@ -17378,9 +17378,9 @@
       <c r="O13" s="141"/>
       <c r="P13" s="141"/>
       <c r="Q13" s="146"/>
-      <c r="T13" s="437"/>
-      <c r="U13" s="438"/>
-      <c r="V13" s="439"/>
+      <c r="T13" s="443"/>
+      <c r="U13" s="444"/>
+      <c r="V13" s="445"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147">
@@ -17751,11 +17751,11 @@
       <c r="Q27" s="146"/>
     </row>
     <row r="28" spans="1:17" s="130" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="421" t="s">
+      <c r="A28" s="427" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="422"/>
-      <c r="C28" s="423"/>
+      <c r="B28" s="428"/>
+      <c r="C28" s="429"/>
       <c r="D28" s="172">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
